--- a/appl_hs.xlsx
+++ b/appl_hs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25620" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
-  <si>
-    <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>学年</t>
     <rPh sb="0" eb="2">
@@ -35,73 +28,176 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>連絡先(メールアドレス)</t>
+    <t>経験</t>
+    <rPh sb="0" eb="2">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC貸出し</t>
+    <rPh sb="2" eb="4">
+      <t>カシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末貸出し</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ PCの貸出しを希望する場合は，「PC貸出し」欄に「希望」と記して下さい．</t>
+    <rPh sb="5" eb="7">
+      <t>カシダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カシダ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シル</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ Android端末(タブレット)の貸出しを希望する場合は，「PC貸出し」欄に「希望」と記して下さい．</t>
+    <rPh sb="9" eb="11">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 「経験」欄には，その学生のプログラミング経験を記します．次の4つの選択肢から記号を選んで記して下さい．</t>
+    <rPh sb="3" eb="5">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シル</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>シル</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　A. プログラミング経験なし  B. プログラミング経験あり(言語不問)  C. Javaプログラミング経験あり  D. Androidプログラミング経験あり</t>
+    <rPh sb="12" eb="14">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>フモン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入例</t>
     <rPh sb="0" eb="3">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC持込み</t>
-    <rPh sb="2" eb="3">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>可・不可</t>
-  </si>
-  <si>
-    <t>可・不可</t>
-    <rPh sb="0" eb="1">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※記入例</t>
-    <rPh sb="1" eb="4">
       <t>キニュウレイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>可</t>
-    <rPh sb="0" eb="1">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青森太郎</t>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望</t>
     <rPh sb="0" eb="2">
-      <t>アオモリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>taro@aomori-u.ac.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考(空欄でも可)</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カノウ</t>
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏　　　　名</t>
+    <rPh sb="0" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ PC，Android端末は台数に限りがあるため，貸し出せない場合があります．予めご了承下さい．</t>
+    <rPh sb="12" eb="14">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>リョウショウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>クダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -110,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,24 +222,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,19 +239,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -502,159 +656,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="54.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="19" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="19" thickTop="1">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="D2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
